--- a/data/trans_bre/P16A05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>204,95%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,71%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,4; 8,3</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 7,14</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 3,32</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25,94; 662,35</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,79; 374,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,4; 219,32</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>174,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>121,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,89%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 6,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,22; 7,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 6,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 6,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,46; 441,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,83; 342,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,92; 298,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,78; 143,3</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,32%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; -0,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,66; 1,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 5,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 6,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 36,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,04; 66,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,88; 314,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 202,69</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>210,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,42%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 5,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,52; 8,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 7,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 3,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,26; 1142,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,74; 272,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,21; 252,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,98; 364,61</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>288,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>194,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>286,99%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 7,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,85; 17,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 14,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,5; 10,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,17; 882,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,83; 838,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,75; 560,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,42; 761,79</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>371,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,53%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 5,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 6,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 5,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,08; 9,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,26; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,68; 491,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,05; 370,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,61; 240,74</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,36%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 4,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 3,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 6,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 6,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,08; 247,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,08; 149,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,87; 234,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,48; 229,52</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>161,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,09%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 5,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,26; 6,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,9; 7,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,78; 9,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,19; 159,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,15; 371,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,37; 326,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,17; 227,22</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,51%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,42%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,34%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,41%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 3,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 4,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,05; 5,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 5,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,07; 164,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,04; 166,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,07; 173,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,56; 133,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>35,01%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 6,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,32</t>
+          <t>-1,65; 3,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,61; 174,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 219,32</t>
+          <t>-38,98; 226,15</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>58,65%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 6,57</t>
+          <t>0,44; 6,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 143,3</t>
+          <t>4,83; 152,52</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>67,32%</t>
+          <t>67,6%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 6,01</t>
+          <t>-0,24; 5,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 202,69</t>
+          <t>-4,63; 198,78</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>134,54%</t>
+          <t>339,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>26,01%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,14</t>
+          <t>4,45; 11,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,84</t>
+          <t>-2,36; 3,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,74; 272,82</t>
+          <t>91,39; 1050,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 364,61</t>
+          <t>-57,14; 295,08</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>286,99%</t>
+          <t>291,16%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,55</t>
+          <t>4,6; 10,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92,42; 761,79</t>
+          <t>95,39; 765,6</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>105,53%</t>
+          <t>108,95%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,2</t>
+          <t>2,12; 9,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,61; 240,74</t>
+          <t>23,73; 247,26</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>108,36%</t>
+          <t>86,34%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,84</t>
+          <t>-1,03; 6,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,48; 229,52</t>
+          <t>-20,4; 193,12</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>122,09%</t>
+          <t>180,18%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,14</t>
+          <t>4,54; 10,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>56,17; 227,22</t>
+          <t>77,27; 518,08</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>94,11%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,29</t>
+          <t>2,4; 5,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>56,56; 133,48</t>
+          <t>54,7; 152,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 8,3</t>
+          <t>1,57; 8,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 6,85</t>
+          <t>-2,43; 6,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 7,14</t>
+          <t>-0,81; 7,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,26</t>
+          <t>-1,75; 3,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,94; 662,35</t>
+          <t>36,93; 796,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 174,39</t>
+          <t>-28,67; 169,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 374,06</t>
+          <t>-20,1; 352,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 226,15</t>
+          <t>-39,2; 230,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,9</t>
+          <t>1,72; 6,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 7,9</t>
+          <t>1,48; 7,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,77</t>
+          <t>1,14; 7,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,7</t>
+          <t>0,37; 6,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,46; 441,16</t>
+          <t>42,12; 505,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,83; 342,31</t>
+          <t>22,49; 367,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,92; 298,43</t>
+          <t>19,62; 338,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 152,52</t>
+          <t>4,1; 154,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,35</t>
+          <t>-3,63; -0,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,24</t>
+          <t>-4,69; 1,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,51</t>
+          <t>-0,29; 5,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,96</t>
+          <t>-0,27; 6,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 36,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-80,04; 66,56</t>
+          <t>-78,44; 67,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 314,29</t>
+          <t>-11,94; 347,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 198,78</t>
+          <t>-5,54; 194,9</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 5,03</t>
+          <t>0,53; 5,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 11,7</t>
+          <t>4,55; 11,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,87</t>
+          <t>0,8; 8,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 3,13</t>
+          <t>-2,63; 2,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 1142,69</t>
+          <t>-11,23; 998,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,39; 1050,79</t>
+          <t>93,49; 1038,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 252,08</t>
+          <t>7,64; 303,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,14; 295,08</t>
+          <t>-57,99; 252,32</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 7,75</t>
+          <t>-0,33; 7,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,85; 17,34</t>
+          <t>6,16; 17,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 14,34</t>
+          <t>3,76; 14,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 10,7</t>
+          <t>4,73; 10,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 882,95</t>
+          <t>-23,86; 683,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,83; 838,15</t>
+          <t>85,58; 884,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,75; 560,49</t>
+          <t>52,14; 523,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,39; 765,6</t>
+          <t>87,98; 751,05</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,2</t>
+          <t>0,44; 5,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 6,36</t>
+          <t>-0,12; 6,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 5,49</t>
+          <t>-1,2; 5,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,12; 9,26</t>
+          <t>1,97; 9,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,26; —</t>
+          <t>-56,36; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 491,46</t>
+          <t>-22,01; 453,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 370,73</t>
+          <t>-33,53; 334,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,73; 247,26</t>
+          <t>23,82; 254,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,75</t>
+          <t>0,34; 4,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,19</t>
+          <t>-1,19; 3,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,04</t>
+          <t>1,17; 6,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,22</t>
+          <t>-1,67; 6,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 247,8</t>
+          <t>-0,31; 264,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 149,45</t>
+          <t>-31,46; 163,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,87; 234,93</t>
+          <t>23,06; 259,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 193,12</t>
+          <t>-19,8; 194,69</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,73</t>
+          <t>1,05; 5,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,65</t>
+          <t>1,9; 6,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,74</t>
+          <t>2,6; 7,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,54; 10,67</t>
+          <t>4,53; 11,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,19; 159,92</t>
+          <t>16,36; 170,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>58,15; 371,23</t>
+          <t>37,77; 353,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>65,37; 326,32</t>
+          <t>59,69; 310,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>77,27; 518,08</t>
+          <t>78,35; 493,02</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,63</t>
+          <t>1,78; 3,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,88</t>
+          <t>2,52; 4,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,05; 5,37</t>
+          <t>3,02; 5,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,19</t>
+          <t>2,33; 5,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>58,07; 164,05</t>
+          <t>57,93; 164,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>67,04; 166,85</t>
+          <t>63,66; 167,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>77,07; 173,3</t>
+          <t>77,32; 173,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>54,7; 152,07</t>
+          <t>54,4; 155,71</t>
         </is>
       </c>
     </row>
